--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CB21D4-A44E-CF48-A451-B243E8E6BDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5020E-0498-2645-8BDE-20400E53D9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="1960" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT Process description" sheetId="2" r:id="rId1"/>
@@ -496,10 +496,10 @@
     <t>ecoinvent</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 200 bar</t>
+    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:K638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G639" sqref="G639"/>
+      <selection activeCell="K654" sqref="K654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6466,7 +6466,7 @@
   <autoFilter ref="A1:K638" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="hydrogen production, gaseous, 25 bar, from electrolysis"/>
+        <filter val="hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5020E-0498-2645-8BDE-20400E53D9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33EEF5-F2FF-644B-9905-5AC5159790CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32840" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT Process description" sheetId="2" r:id="rId1"/>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FT fuel - Diesel'!$A$1:$K$638</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FT fuel - Diesel'!$A$1:$K$656</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="165">
   <si>
     <t>Activity</t>
   </si>
@@ -500,17 +500,51 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>Energy-based allocation (alternative including LPG and C5-C10 olefins from REDIFUEL project https://doi.org/10.1016/j.apenergy.2023.120834)</t>
+  </si>
+  <si>
+    <t>C5-C10 olefins</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Wax</t>
+  </si>
+  <si>
+    <t>HHV [MJ/kg]</t>
+  </si>
+  <si>
+    <t>Energy produced [MJ]</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas, synthetic</t>
+  </si>
+  <si>
+    <t>Adapted from A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834. Energy-based allocation between 3 other co-products (diesel, wax and C5-C10 olefins). Allocation key for this co-product: 11%. Post corrected to preserve carbon balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -611,7 +645,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,6 +671,12 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -953,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36521810-1828-BD4D-A97E-7E3B0102C0F6}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -975,12 +1015,12 @@
     <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -988,12 +1028,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
@@ -1024,7 +1064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>138</v>
       </c>
@@ -1051,7 +1091,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1064,7 +1104,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>139</v>
       </c>
@@ -1104,7 +1144,7 @@
         <v>0.18029924035288891</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>140</v>
       </c>
@@ -1143,7 +1183,7 @@
         <v>-8.7798520991460016E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>141</v>
       </c>
@@ -1182,7 +1222,7 @@
         <v>5.4140534245994854E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>142</v>
       </c>
@@ -1222,7 +1262,7 @@
         <v>-0.13350001208570506</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1235,7 +1275,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>143</v>
       </c>
@@ -1253,311 +1293,575 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15">
+        <f>23.94*(47.5/43)</f>
+        <v>26.445348837209302</v>
+      </c>
+      <c r="D17" s="16">
+        <f>SUM(D19:D22)*(D6/SUM(D8:D11))</f>
+        <v>110849.209768532</v>
+      </c>
+      <c r="E17" s="15">
+        <v>100</v>
+      </c>
+      <c r="F17" s="16">
+        <f>D17/C17</f>
+        <v>4191.6334872680618</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="17">
+        <f>0.875*1.57</f>
+        <v>1.37375</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15">
+        <v>47.9</v>
+      </c>
+      <c r="D19" s="16">
+        <f>807*47.9</f>
+        <v>38655.299999999996</v>
+      </c>
+      <c r="E19" s="18">
+        <f>D19/SUM($D$19:$D$22)</f>
+        <v>0.43589992252983506</v>
+      </c>
+      <c r="F19" s="16">
+        <f>D19/C19</f>
+        <v>806.99999999999989</v>
+      </c>
+      <c r="G19" s="16">
+        <f>E19*$F$17</f>
+        <v>1827.1327123736105</v>
+      </c>
+      <c r="H19" s="17">
+        <f>G19/F19</f>
+        <v>2.2641049719623427</v>
+      </c>
+      <c r="I19" s="17">
+        <f>$I$17*H19</f>
+        <v>3.1103142052332684</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15">
+        <v>48.3</v>
+      </c>
+      <c r="D20" s="16">
+        <f>202*48.3</f>
+        <v>9756.5999999999985</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" ref="E20:E22" si="4">D20/SUM($D$19:$D$22)</f>
+        <v>0.11002116615715279</v>
+      </c>
+      <c r="F20" s="16">
+        <f>D20/C20</f>
+        <v>201.99999999999997</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" ref="G20:G22" si="5">E20*$F$17</f>
+        <v>461.16840437260521</v>
+      </c>
+      <c r="H20" s="17">
+        <f>G20/F20</f>
+        <v>2.2830119028346796</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" ref="I20:I22" si="6">$I$17*H20</f>
+        <v>3.136287601519141</v>
+      </c>
+      <c r="J20" s="17">
+        <f>0.82*(44/12)</f>
+        <v>3.0066666666666664</v>
+      </c>
+      <c r="K20" s="17">
+        <f>J20-I20</f>
+        <v>-0.12962093485247461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15">
+        <v>47.5</v>
+      </c>
+      <c r="D21" s="16">
+        <f>785*47.5</f>
+        <v>37287.5</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="4"/>
+        <v>0.42047580438726967</v>
+      </c>
+      <c r="F21" s="16">
+        <f>D21/C21</f>
+        <v>785</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="5"/>
+        <v>1762.4804622556546</v>
+      </c>
+      <c r="H21" s="17">
+        <f>G21/F21</f>
+        <v>2.2451980410900059</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="6"/>
+        <v>3.0843408089473958</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3.16</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" ref="K21" si="7">J21-I21</f>
+        <v>7.5659191052604324E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15">
+        <v>47.3</v>
+      </c>
+      <c r="D22" s="16">
+        <f>63*47.3</f>
+        <v>2979.8999999999996</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="4"/>
+        <v>3.3603106925742539E-2</v>
+      </c>
+      <c r="F22" s="16">
+        <f>D22/C22</f>
+        <v>62.999999999999993</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="5"/>
+        <v>140.85190826619177</v>
+      </c>
+      <c r="H22" s="17">
+        <f>G22/F22</f>
+        <v>2.2357445756538379</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="6"/>
+        <v>3.0713541108044597</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16">
+        <f>D17-SUM(D19:D22)</f>
+        <v>22169.909768532016</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9">
         <v>23.94</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D29" s="19">
         <v>980752</v>
       </c>
-      <c r="E17" s="19">
-        <f>D17*1000/C17</f>
+      <c r="E29" s="19">
+        <f>D29*1000/C29</f>
         <v>40967084.377610691</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
         <v>100</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
         <v>1.37</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9">
         <v>44.5</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D31" s="19">
         <v>190189</v>
       </c>
-      <c r="E19" s="19">
-        <f>D19*1000/C19</f>
+      <c r="E31" s="19">
+        <f>D31*1000/C31</f>
         <v>4273910.1123595508</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F31" s="20">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G19" s="20">
-        <f>F19*E19</f>
+      <c r="G31" s="20">
+        <f>F31*E31</f>
         <v>1132586.1797752811</v>
       </c>
-      <c r="H19" s="21">
-        <f>G19/SUM($G$19:$G$22)</f>
+      <c r="H31" s="21">
+        <f>G31/SUM($G$31:$G$34)</f>
         <v>6.7814648037968772E-2</v>
       </c>
-      <c r="I19" s="22">
-        <f>H19*$E$17</f>
+      <c r="I31" s="22">
+        <f>H31*$E$29</f>
         <v>2778168.408209438</v>
       </c>
-      <c r="J19" s="23">
-        <f>I19/E19</f>
+      <c r="J31" s="23">
+        <f>I31/E31</f>
         <v>0.65002967661284294</v>
       </c>
-      <c r="K19" s="23">
-        <f>$K$17*J19</f>
+      <c r="K31" s="23">
+        <f>$K$29*J31</f>
         <v>0.89054065695959495</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L31" s="23">
         <f>0.9197*(44/12)</f>
         <v>3.372233333333333</v>
       </c>
-      <c r="M19" s="23">
-        <f>L19-K19</f>
+      <c r="M31" s="23">
+        <f>L31-K31</f>
         <v>2.4816926763737381</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9">
         <v>45</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D32" s="19">
         <v>143100</v>
       </c>
-      <c r="E20" s="19">
-        <f>D20*1000/C20</f>
+      <c r="E32" s="19">
+        <f>D32*1000/C32</f>
         <v>3180000</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F32" s="20">
         <v>0.29699999999999999</v>
       </c>
-      <c r="G20" s="20">
-        <f>F20*E20</f>
+      <c r="G32" s="20">
+        <f>F32*E32</f>
         <v>944460</v>
       </c>
-      <c r="H20" s="21">
-        <f t="shared" ref="H20:H22" si="4">G20/SUM($G$19:$G$22)</f>
+      <c r="H32" s="21">
+        <f t="shared" ref="H32:H34" si="8">G32/SUM($G$31:$G$34)</f>
         <v>5.6550418528546698E-2</v>
       </c>
-      <c r="I20" s="19">
-        <f t="shared" ref="I20:I22" si="5">H20*$E$17</f>
+      <c r="I32" s="19">
+        <f t="shared" ref="I32:I34" si="9">H32*$E$29</f>
         <v>2316705.7674481715</v>
       </c>
-      <c r="J20" s="23">
-        <f>I20/E20</f>
+      <c r="J32" s="23">
+        <f>I32/E32</f>
         <v>0.72852382624156342</v>
       </c>
-      <c r="K20" s="23">
-        <f t="shared" ref="K20:K22" si="6">$K$17*J20</f>
+      <c r="K32" s="23">
+        <f t="shared" ref="K32:K34" si="10">$K$29*J32</f>
         <v>0.99807764195094195</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L32" s="23">
         <v>3.14</v>
       </c>
-      <c r="M20" s="23">
-        <f t="shared" ref="M20:M22" si="7">L20-K20</f>
+      <c r="M32" s="23">
+        <f t="shared" ref="M32:M34" si="11">L32-K32</f>
         <v>2.1419223580490581</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9">
         <v>43.3</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D33" s="19">
         <v>286404</v>
       </c>
-      <c r="E21" s="19">
-        <f>D21*1000/C21</f>
+      <c r="E33" s="19">
+        <f>D33*1000/C33</f>
         <v>6614411.0854503466</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F33" s="20">
         <v>0.4</v>
       </c>
-      <c r="G21" s="20">
-        <f>F21*E21</f>
+      <c r="G33" s="20">
+        <f>F33*E33</f>
         <v>2645764.4341801386</v>
       </c>
-      <c r="H21" s="21">
-        <f t="shared" si="4"/>
+      <c r="H33" s="21">
+        <f t="shared" si="8"/>
         <v>0.15841759956041587</v>
       </c>
-      <c r="I21" s="19">
-        <f t="shared" si="5"/>
+      <c r="I33" s="19">
+        <f t="shared" si="9"/>
         <v>6489907.1680900995</v>
       </c>
-      <c r="J21" s="23">
-        <f>I21/E21</f>
+      <c r="J33" s="23">
+        <f>I33/E33</f>
         <v>0.98117687035900791</v>
       </c>
-      <c r="K21" s="23">
-        <f t="shared" si="6"/>
+      <c r="K33" s="23">
+        <f t="shared" si="10"/>
         <v>1.344212312391841</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L33" s="23">
         <v>3.16</v>
       </c>
-      <c r="M21" s="23">
-        <f t="shared" si="7"/>
+      <c r="M33" s="23">
+        <f t="shared" si="11"/>
         <v>1.8157876876081591</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D34" s="19">
         <v>164908</v>
       </c>
-      <c r="E22" s="19">
-        <f>D22*1000/C22</f>
+      <c r="E34" s="19">
+        <f>D34*1000/C34</f>
         <v>4102189.0547263678</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F34" s="20">
         <v>2.92</v>
       </c>
-      <c r="G22" s="20">
-        <f>F22*E22</f>
+      <c r="G34" s="20">
+        <f>F34*E34</f>
         <v>11978392.039800994</v>
       </c>
-      <c r="H22" s="21">
-        <f t="shared" si="4"/>
+      <c r="H34" s="21">
+        <f t="shared" si="8"/>
         <v>0.71721733387306863</v>
       </c>
-      <c r="I22" s="19">
-        <f t="shared" si="5"/>
+      <c r="I34" s="19">
+        <f t="shared" si="9"/>
         <v>29382303.033862982</v>
       </c>
-      <c r="J22" s="23">
-        <f>I22/E22</f>
+      <c r="J34" s="23">
+        <f>I34/E34</f>
         <v>7.1625911536207578</v>
       </c>
-      <c r="K22" s="23">
-        <f t="shared" si="6"/>
+      <c r="K34" s="23">
+        <f t="shared" si="10"/>
         <v>9.8127498804604389</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L34" s="23">
         <f>0.75*(44/12)</f>
         <v>2.75</v>
       </c>
-      <c r="M22" s="23">
-        <f t="shared" si="7"/>
+      <c r="M34" s="23">
+        <f t="shared" si="11"/>
         <v>-7.0627498804604389</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="19">
-        <f>D17-SUM(D19:D22)</f>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="19">
+        <f>D29-SUM(D31:D34)</f>
         <v>196151</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,11 +1870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K638"/>
+  <dimension ref="A1:K656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K654" sqref="K654"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1588,10 +1891,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1623,7 +1926,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1631,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1639,12 +1942,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1679,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -1705,7 +2008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>107</v>
       </c>
@@ -1725,7 +2028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +2048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
@@ -1765,7 +2068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>87</v>
       </c>
@@ -1785,7 +2088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>89</v>
       </c>
@@ -1805,7 +2108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>91</v>
       </c>
@@ -1825,7 +2128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>93</v>
       </c>
@@ -1845,7 +2148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>95</v>
       </c>
@@ -1865,7 +2168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>97</v>
       </c>
@@ -1885,7 +2188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>100</v>
       </c>
@@ -1905,7 +2208,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>104</v>
       </c>
@@ -1925,7 +2228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>123</v>
       </c>
@@ -1943,12 +2246,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="14"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +2259,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +2283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1988,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1996,12 +2299,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -2036,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>117</v>
       </c>
@@ -2062,7 +2365,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>108</v>
       </c>
@@ -2082,7 +2385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
@@ -2102,7 +2405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>85</v>
       </c>
@@ -2122,7 +2425,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -2142,7 +2445,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>89</v>
       </c>
@@ -2162,7 +2465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>91</v>
       </c>
@@ -2182,7 +2485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>93</v>
       </c>
@@ -2202,7 +2505,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>95</v>
       </c>
@@ -2222,7 +2525,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>97</v>
       </c>
@@ -2242,7 +2545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>100</v>
       </c>
@@ -2262,7 +2565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>104</v>
       </c>
@@ -2282,7 +2585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>123</v>
       </c>
@@ -2300,12 +2603,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2616,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2321,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -2337,7 +2640,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -2345,7 +2648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -2353,12 +2656,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -2393,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
@@ -2419,7 +2722,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>109</v>
       </c>
@@ -2439,7 +2742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -2459,7 +2762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>85</v>
       </c>
@@ -2479,7 +2782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>87</v>
       </c>
@@ -2499,7 +2802,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>89</v>
       </c>
@@ -2519,7 +2822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>91</v>
       </c>
@@ -2539,7 +2842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>93</v>
       </c>
@@ -2559,7 +2862,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>95</v>
       </c>
@@ -2579,7 +2882,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>97</v>
       </c>
@@ -2599,7 +2902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
@@ -2619,7 +2922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>104</v>
       </c>
@@ -2639,7 +2942,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>123</v>
       </c>
@@ -2657,12 +2960,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2678,7 +2981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2686,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2694,7 +2997,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2702,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2710,12 +3013,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2750,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>119</v>
       </c>
@@ -2776,7 +3079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>110</v>
       </c>
@@ -2796,7 +3099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>23</v>
       </c>
@@ -2816,7 +3119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
@@ -2836,7 +3139,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>87</v>
       </c>
@@ -2856,7 +3159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>89</v>
       </c>
@@ -2876,7 +3179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>91</v>
       </c>
@@ -2896,7 +3199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>93</v>
       </c>
@@ -2916,7 +3219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>95</v>
       </c>
@@ -2936,7 +3239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>97</v>
       </c>
@@ -2956,7 +3259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>100</v>
       </c>
@@ -2976,7 +3279,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>104</v>
       </c>
@@ -2996,7 +3299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>123</v>
       </c>
@@ -3014,12 +3317,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3330,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -3035,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -3059,7 +3362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -3067,7 +3370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -3075,7 +3378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>35</v>
       </c>
@@ -3083,12 +3386,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -3117,7 +3420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>107</v>
       </c>
@@ -3143,7 +3446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>115</v>
       </c>
@@ -3166,7 +3469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>148</v>
       </c>
@@ -3187,7 +3490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>149</v>
       </c>
@@ -3208,7 +3511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>125</v>
       </c>
@@ -3251,7 +3554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>23</v>
       </c>
@@ -3275,8 +3578,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -3284,7 +3587,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -3308,7 +3611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -3324,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +3635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>35</v>
       </c>
@@ -3340,12 +3643,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -3374,7 +3677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>111</v>
       </c>
@@ -3397,7 +3700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>115</v>
       </c>
@@ -3420,7 +3723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>148</v>
       </c>
@@ -3441,7 +3744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>149</v>
       </c>
@@ -3462,7 +3765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>38</v>
       </c>
@@ -3485,7 +3788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>125</v>
       </c>
@@ -3505,7 +3808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>23</v>
       </c>
@@ -3529,8 +3832,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -3554,7 +3857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -3562,7 +3865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -3570,7 +3873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3586,7 +3889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>35</v>
       </c>
@@ -3594,12 +3897,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3628,7 +3931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>108</v>
       </c>
@@ -3654,7 +3957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>115</v>
       </c>
@@ -3677,7 +3980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>148</v>
       </c>
@@ -3698,7 +4001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>149</v>
       </c>
@@ -3719,7 +4022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>38</v>
       </c>
@@ -3742,7 +4045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>125</v>
       </c>
@@ -3762,7 +4065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>23</v>
       </c>
@@ -3786,8 +4089,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +4098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3803,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3811,7 +4114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3819,7 +4122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +4130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3835,7 +4138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3843,7 +4146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>35</v>
       </c>
@@ -3851,12 +4154,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3885,7 +4188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>112</v>
       </c>
@@ -3911,7 +4214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>115</v>
       </c>
@@ -3934,7 +4237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>148</v>
       </c>
@@ -3955,7 +4258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>149</v>
       </c>
@@ -3976,7 +4279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>38</v>
       </c>
@@ -3999,7 +4302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>123</v>
       </c>
@@ -4019,7 +4322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>23</v>
       </c>
@@ -4043,10 +4346,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="10"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -4054,7 +4357,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -4062,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -4078,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -4086,7 +4389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -4094,7 +4397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -4102,7 +4405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>35</v>
       </c>
@@ -4110,12 +4413,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -4144,7 +4447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>109</v>
       </c>
@@ -4170,7 +4473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>115</v>
       </c>
@@ -4193,7 +4496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>148</v>
       </c>
@@ -4214,7 +4517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>149</v>
       </c>
@@ -4235,7 +4538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>38</v>
       </c>
@@ -4258,7 +4561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>123</v>
       </c>
@@ -4278,7 +4581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>23</v>
       </c>
@@ -4302,8 +4605,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -4311,7 +4614,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -4335,7 +4638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -4343,7 +4646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -4359,7 +4662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>35</v>
       </c>
@@ -4367,12 +4670,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -4401,7 +4704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>113</v>
       </c>
@@ -4424,7 +4727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>115</v>
       </c>
@@ -4447,7 +4750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>148</v>
       </c>
@@ -4468,7 +4771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>149</v>
       </c>
@@ -4489,7 +4792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>38</v>
       </c>
@@ -4512,7 +4815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>125</v>
       </c>
@@ -4532,7 +4835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>23</v>
       </c>
@@ -4556,8 +4859,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -4565,7 +4868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -4573,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -4581,7 +4884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -4589,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4597,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4605,7 +4908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4613,7 +4916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>35</v>
       </c>
@@ -4621,12 +4924,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4655,7 +4958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>110</v>
       </c>
@@ -4681,7 +4984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>115</v>
       </c>
@@ -4704,7 +5007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>148</v>
       </c>
@@ -4725,7 +5028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>149</v>
       </c>
@@ -4746,7 +5049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>38</v>
       </c>
@@ -4769,7 +5072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>125</v>
       </c>
@@ -4789,7 +5092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>23</v>
       </c>
@@ -4813,16 +5116,16 @@
         <v>151</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4830,15 +5133,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4846,7 +5149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +5157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4862,28 +5165,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4905,13 +5208,17 @@
       <c r="G226" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="9" t="s">
-        <v>114</v>
+      <c r="H226" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="9" t="str">
+        <f>B217</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</v>
       </c>
       <c r="B227" s="9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>8</v>
@@ -4920,18 +5227,22 @@
         <v>6</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G227" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="24" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="G227" s="9" t="str">
+        <f>B217</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</v>
+      </c>
+      <c r="H227" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B228" s="9">
-        <v>0.125</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>8</v>
@@ -4942,456 +5253,453 @@
       <c r="F228" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G228" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G228" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B229" s="9">
+        <f>3.64160231884058*0.11</f>
+        <v>0.4005762550724638</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B230" s="9">
+        <f>0.00107549913043478*0.11</f>
+        <v>1.1830490434782582E-4</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B231" s="10">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B232" s="9">
+        <v>-0.13</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="10">
+        <f>0.0872420618556701*0.11</f>
+        <v>9.5966268041237108E-3</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B229" s="9">
+    </row>
+    <row r="236" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F229" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G229" s="9" t="s">
+      <c r="B236" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B230" s="12">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" s="9" t="s">
+    <row r="238" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F230" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="12"/>
-    </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="9" t="s">
+      <c r="B239" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B237" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="9" t="s">
+      <c r="B240" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B241" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7" t="s">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="9" t="s">
+    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B244" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C244" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G240" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B241" s="9">
-        <v>1</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F241" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G241" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B242" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G242" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B243" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G243" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B244" s="10">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E244" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F244" s="9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G244" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B245" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B246" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G246" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B247" s="9">
+        <v>1</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" s="12">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="12"/>
+    </row>
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B259" s="9">
+        <v>1</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B260" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G260" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B261" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G261" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" s="10">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G262" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="10"/>
-    </row>
-    <row r="246" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>1</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>2</v>
-      </c>
-      <c r="B248" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>3</v>
-      </c>
-      <c r="B249" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>7</v>
-      </c>
-      <c r="B251" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>9</v>
-      </c>
-      <c r="B252" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>35</v>
-      </c>
-      <c r="B253" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>11</v>
-      </c>
-      <c r="B255" t="s">
-        <v>12</v>
-      </c>
-      <c r="C255" t="s">
-        <v>7</v>
-      </c>
-      <c r="D255" t="s">
-        <v>5</v>
-      </c>
-      <c r="E255" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" t="s">
-        <v>3</v>
-      </c>
-      <c r="G255" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>38</v>
-      </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="C256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" t="s">
-        <v>5</v>
-      </c>
-      <c r="F256" t="s">
-        <v>15</v>
-      </c>
-      <c r="G256" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>52</v>
-      </c>
-      <c r="B257" s="3">
-        <v>345000</v>
-      </c>
-      <c r="C257" t="s">
-        <v>53</v>
-      </c>
-      <c r="D257" t="s">
-        <v>22</v>
-      </c>
-      <c r="F257" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>29</v>
-      </c>
-      <c r="B258" s="3">
-        <v>7200000</v>
-      </c>
-      <c r="C258" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" t="s">
-        <v>6</v>
-      </c>
-      <c r="F258" t="s">
-        <v>17</v>
-      </c>
-      <c r="G258" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>55</v>
-      </c>
-      <c r="B259" s="3">
-        <v>7200000</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" t="s">
-        <v>17</v>
-      </c>
-      <c r="G259" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>57</v>
-      </c>
-      <c r="B260" s="3">
-        <v>-828000000</v>
-      </c>
-      <c r="C260" t="s">
-        <v>58</v>
-      </c>
-      <c r="D260" t="s">
-        <v>6</v>
-      </c>
-      <c r="F260" t="s">
-        <v>17</v>
-      </c>
-      <c r="G260" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>60</v>
-      </c>
-      <c r="B261" s="3">
-        <v>-14400000</v>
-      </c>
-      <c r="C261" t="s">
-        <v>58</v>
-      </c>
-      <c r="D261" t="s">
-        <v>6</v>
-      </c>
-      <c r="F261" t="s">
-        <v>17</v>
-      </c>
-      <c r="G261" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>62</v>
-      </c>
-      <c r="B262" s="3">
-        <v>1120000</v>
-      </c>
-      <c r="D262" t="s">
-        <v>63</v>
-      </c>
-      <c r="E262" t="s">
-        <v>64</v>
-      </c>
-      <c r="F262" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="10"/>
+    </row>
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -5399,15 +5707,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -5415,7 +5723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -5423,7 +5731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -5431,1045 +5739,1025 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>35</v>
+      </c>
+      <c r="B271" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>11</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B273" t="s">
         <v>12</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C273" t="s">
         <v>7</v>
-      </c>
-      <c r="D271" t="s">
-        <v>5</v>
-      </c>
-      <c r="E271" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" t="s">
-        <v>3</v>
-      </c>
-      <c r="G271" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>29</v>
-      </c>
-      <c r="B272">
-        <v>300</v>
-      </c>
-      <c r="C272" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" t="s">
-        <v>6</v>
-      </c>
-      <c r="F272" t="s">
-        <v>17</v>
-      </c>
-      <c r="G272" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>27</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
-        <v>28</v>
       </c>
       <c r="D273" t="s">
         <v>5</v>
       </c>
+      <c r="E273" t="s">
+        <v>13</v>
+      </c>
       <c r="F273" t="s">
+        <v>3</v>
+      </c>
+      <c r="G273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>38</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" t="s">
         <v>15</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G274" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>52</v>
+      </c>
+      <c r="B275" s="3">
+        <v>345000</v>
+      </c>
+      <c r="C275" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" t="s">
+        <v>17</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>29</v>
+      </c>
+      <c r="B276" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" t="s">
+        <v>17</v>
+      </c>
+      <c r="G276" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>55</v>
+      </c>
+      <c r="B277" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+      <c r="F277" t="s">
+        <v>17</v>
+      </c>
+      <c r="G277" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>57</v>
+      </c>
+      <c r="B278" s="3">
+        <v>-828000000</v>
+      </c>
+      <c r="C278" t="s">
+        <v>58</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" t="s">
+        <v>17</v>
+      </c>
+      <c r="G278" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>60</v>
+      </c>
+      <c r="B279" s="3">
+        <v>-14400000</v>
+      </c>
+      <c r="C279" t="s">
+        <v>58</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" t="s">
+        <v>17</v>
+      </c>
+      <c r="G279" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>62</v>
+      </c>
+      <c r="B280" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="D280" t="s">
+        <v>63</v>
+      </c>
+      <c r="E280" t="s">
+        <v>64</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>1</v>
       </c>
-      <c r="B276">
+      <c r="B283">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>2</v>
       </c>
-      <c r="B277" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+      <c r="B284" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>3</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B285" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>5</v>
       </c>
-      <c r="B279" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>7</v>
       </c>
-      <c r="B280" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>9</v>
-      </c>
-      <c r="B281" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>35</v>
-      </c>
-      <c r="B282" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
+      <c r="B287" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
         <v>11</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B289" t="s">
         <v>12</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C289" t="s">
         <v>7</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D289" t="s">
         <v>5</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E289" t="s">
         <v>13</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F289" t="s">
         <v>3</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G289" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>65</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" t="s">
-        <v>6</v>
-      </c>
-      <c r="F285" t="s">
-        <v>15</v>
-      </c>
-      <c r="G285" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>67</v>
-      </c>
-      <c r="B286">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C286" t="s">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290">
+        <v>300</v>
+      </c>
+      <c r="C290" t="s">
         <v>28</v>
       </c>
-      <c r="D286" t="s">
-        <v>6</v>
-      </c>
-      <c r="F286" t="s">
-        <v>17</v>
-      </c>
-      <c r="G286" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>69</v>
-      </c>
-      <c r="B287">
-        <v>0.11</v>
-      </c>
-      <c r="C287" t="s">
-        <v>70</v>
-      </c>
-      <c r="D287" t="s">
-        <v>6</v>
-      </c>
-      <c r="F287" t="s">
-        <v>17</v>
-      </c>
-      <c r="G287" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>72</v>
-      </c>
-      <c r="B288">
-        <v>0.31</v>
-      </c>
-      <c r="C288" t="s">
-        <v>28</v>
-      </c>
-      <c r="D288" t="s">
-        <v>6</v>
-      </c>
-      <c r="F288" t="s">
-        <v>17</v>
-      </c>
-      <c r="G288" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="290" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D290" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" t="s">
+        <v>17</v>
+      </c>
+      <c r="G290" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+      <c r="F291" t="s">
+        <v>15</v>
+      </c>
+      <c r="G291" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>2</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B295" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>9</v>
+      </c>
+      <c r="B299" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>35</v>
+      </c>
+      <c r="B300" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" t="s">
+        <v>5</v>
+      </c>
+      <c r="E302" t="s">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s">
+        <v>3</v>
+      </c>
+      <c r="G302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>65</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" t="s">
+        <v>15</v>
+      </c>
+      <c r="G303" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>67</v>
+      </c>
+      <c r="B304">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C304" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" t="s">
+        <v>6</v>
+      </c>
+      <c r="F304" t="s">
+        <v>17</v>
+      </c>
+      <c r="G304" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>69</v>
+      </c>
+      <c r="B305">
+        <v>0.11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>70</v>
+      </c>
+      <c r="D305" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305" t="s">
+        <v>17</v>
+      </c>
+      <c r="G305" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>72</v>
+      </c>
+      <c r="B306">
+        <v>0.31</v>
+      </c>
+      <c r="C306" t="s">
+        <v>28</v>
+      </c>
+      <c r="D306" t="s">
+        <v>6</v>
+      </c>
+      <c r="F306" t="s">
+        <v>17</v>
+      </c>
+      <c r="G306" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>2</v>
+      </c>
+      <c r="B310" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
         <v>3</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B311" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
         <v>5</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B312" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>7</v>
       </c>
-      <c r="B295" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+      <c r="B313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>9</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B314" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>35</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B315" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
+    <row r="316" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>11</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B317" t="s">
         <v>12</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C317" t="s">
         <v>7</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D317" t="s">
         <v>5</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E317" t="s">
         <v>13</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F317" t="s">
         <v>3</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G317" t="s">
         <v>2</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H317" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>49</v>
       </c>
-      <c r="B300">
+      <c r="B318">
         <v>1</v>
       </c>
-      <c r="C300" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" t="s">
+      <c r="C318" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" t="s">
         <v>5</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F318" t="s">
         <v>15</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G318" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>75</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B319" s="3">
         <f>4760/2</f>
         <v>2380</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C319" t="s">
         <v>28</v>
       </c>
-      <c r="D301" t="s">
-        <v>6</v>
-      </c>
-      <c r="F301" t="s">
-        <v>17</v>
-      </c>
-      <c r="G301" t="s">
+      <c r="D319" t="s">
+        <v>6</v>
+      </c>
+      <c r="F319" t="s">
+        <v>17</v>
+      </c>
+      <c r="G319" t="s">
         <v>76</v>
       </c>
-      <c r="H301" t="s">
+      <c r="H319" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>60</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B320" s="3">
         <v>-9520</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C320" t="s">
         <v>58</v>
       </c>
-      <c r="D302" t="s">
-        <v>6</v>
-      </c>
-      <c r="F302" t="s">
-        <v>17</v>
-      </c>
-      <c r="G302" t="s">
+      <c r="D320" t="s">
+        <v>6</v>
+      </c>
+      <c r="F320" t="s">
+        <v>17</v>
+      </c>
+      <c r="G320" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>77</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B321" s="3">
         <f>4760/2</f>
         <v>2380</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C321" t="s">
         <v>28</v>
       </c>
-      <c r="D303" t="s">
-        <v>6</v>
-      </c>
-      <c r="F303" t="s">
-        <v>17</v>
-      </c>
-      <c r="G303" t="s">
+      <c r="D321" t="s">
+        <v>6</v>
+      </c>
+      <c r="F321" t="s">
+        <v>17</v>
+      </c>
+      <c r="G321" t="s">
         <v>78</v>
       </c>
-      <c r="H303" t="s">
+      <c r="H321" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>79</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B322" s="3">
         <v>26700</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C322" t="s">
         <v>28</v>
       </c>
-      <c r="D304" t="s">
-        <v>6</v>
-      </c>
-      <c r="F304" t="s">
-        <v>17</v>
-      </c>
-      <c r="G304" t="s">
+      <c r="D322" t="s">
+        <v>6</v>
+      </c>
+      <c r="F322" t="s">
+        <v>17</v>
+      </c>
+      <c r="G322" t="s">
         <v>80</v>
       </c>
-      <c r="H304" t="s">
+      <c r="H322" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>65</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B323" s="3">
         <v>6600</v>
       </c>
-      <c r="C305" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" t="s">
-        <v>6</v>
-      </c>
-      <c r="F305" t="s">
-        <v>17</v>
-      </c>
-      <c r="G305" t="s">
+      <c r="C323" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
+      </c>
+      <c r="F323" t="s">
+        <v>17</v>
+      </c>
+      <c r="G323" t="s">
         <v>65</v>
       </c>
-      <c r="H305" t="s">
+      <c r="H323" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="3"/>
-    </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="3"/>
-    </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="317" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="1"/>
-      <c r="B317" s="2"/>
-    </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="1"/>
-    </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="4"/>
-      <c r="G327" s="4"/>
-    </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="5"/>
-    </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="5"/>
-    </row>
-    <row r="333" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="1"/>
-      <c r="B333" s="2"/>
-    </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="4"/>
-      <c r="G343" s="4"/>
-    </row>
-    <row r="344" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="4"/>
-      <c r="G344" s="4"/>
-    </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="347" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="1"/>
-      <c r="B347" s="2"/>
-    </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="3"/>
-    </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="3"/>
-    </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="1"/>
-      <c r="B363" s="2"/>
-    </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="373" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="4"/>
-      <c r="G373" s="4"/>
-    </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="5"/>
-    </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="5"/>
-    </row>
-    <row r="379" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="1"/>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="389" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="4"/>
-      <c r="G389" s="4"/>
-    </row>
-    <row r="390" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="4"/>
-      <c r="G390" s="4"/>
-    </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="1"/>
-      <c r="B393" s="2"/>
-    </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="3"/>
-    </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="3"/>
-    </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="1"/>
-      <c r="B409" s="2"/>
-    </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="1"/>
-    </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="419" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="4"/>
-      <c r="G419" s="4"/>
-    </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="5"/>
-    </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="5"/>
-    </row>
-    <row r="425" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-      <c r="B425" s="2"/>
-    </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="4"/>
-      <c r="G435" s="4"/>
-    </row>
-    <row r="436" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="4"/>
-      <c r="G436" s="4"/>
-    </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="439" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="1"/>
-      <c r="B439" s="2"/>
-    </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="1"/>
-    </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="3"/>
-    </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B453" s="3"/>
-    </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="1"/>
-      <c r="B455" s="2"/>
-    </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="1"/>
-    </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="465" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="4"/>
-      <c r="G465" s="4"/>
-    </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B469" s="5"/>
-    </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B470" s="5"/>
-    </row>
-    <row r="471" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="1"/>
-      <c r="B471" s="2"/>
-    </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="478" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="1"/>
-    </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="4"/>
-      <c r="G481" s="4"/>
-    </row>
-    <row r="482" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="4"/>
-      <c r="G482" s="4"/>
-    </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="1"/>
-      <c r="B485" s="2"/>
-    </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="1"/>
-    </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B498" s="3"/>
-    </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B499" s="3"/>
-    </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="501" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="1"/>
-      <c r="B501" s="2"/>
-    </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="4"/>
-      <c r="G511" s="4"/>
-    </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B515" s="5"/>
-    </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="517" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="1"/>
-      <c r="B517" s="2"/>
-    </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="524" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="527" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="4"/>
-      <c r="G527" s="4"/>
-    </row>
-    <row r="528" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="4"/>
-      <c r="G528" s="4"/>
-    </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="530" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="1"/>
-      <c r="B530" s="2"/>
-    </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="1"/>
-    </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B543" s="3"/>
-    </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B544" s="3"/>
-    </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="546" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="1"/>
-      <c r="B546" s="2"/>
-    </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="1"/>
-    </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="556" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="4"/>
-      <c r="G556" s="4"/>
-    </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B560" s="5"/>
-    </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B561" s="5"/>
-    </row>
-    <row r="562" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="1"/>
-      <c r="B562" s="2"/>
-    </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="569" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="1"/>
-    </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="572" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="4"/>
-      <c r="G572" s="4"/>
-    </row>
-    <row r="573" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="4"/>
-      <c r="G573" s="4"/>
-    </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="1"/>
-      <c r="B576" s="2"/>
-    </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="583" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="1"/>
-    </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B589" s="3"/>
-    </row>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B590" s="3"/>
-    </row>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="592" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="1"/>
-      <c r="B592" s="2"/>
-    </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="599" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="1"/>
-    </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="602" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="4"/>
-      <c r="G602" s="4"/>
-    </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B606" s="5"/>
-    </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="608" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="1"/>
-      <c r="B608" s="2"/>
-    </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="615" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="618" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="4"/>
-      <c r="G618" s="4"/>
-    </row>
-    <row r="619" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="4"/>
-      <c r="G619" s="4"/>
-    </row>
-    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="621" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="1"/>
-      <c r="B621" s="2"/>
-    </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="627" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="1"/>
-    </row>
-    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="632" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="1"/>
-      <c r="B632" s="2"/>
-    </row>
-    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="638" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="1"/>
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B332" s="3"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B333" s="3"/>
+    </row>
+    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+      <c r="B335" s="2"/>
+    </row>
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="4"/>
+      <c r="G345" s="4"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B349" s="5"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B350" s="5"/>
+    </row>
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" s="2"/>
+    </row>
+    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A361" s="4"/>
+      <c r="G361" s="4"/>
+    </row>
+    <row r="362" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A362" s="4"/>
+      <c r="G362" s="4"/>
+    </row>
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A365" s="1"/>
+      <c r="B365" s="2"/>
+    </row>
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B378" s="3"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B379" s="3"/>
+    </row>
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+      <c r="B381" s="2"/>
+    </row>
+    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A391" s="4"/>
+      <c r="G391" s="4"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B395" s="5"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B396" s="5"/>
+    </row>
+    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+      <c r="B397" s="2"/>
+    </row>
+    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A407" s="4"/>
+      <c r="G407" s="4"/>
+    </row>
+    <row r="408" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A408" s="4"/>
+      <c r="G408" s="4"/>
+    </row>
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A411" s="1"/>
+      <c r="B411" s="2"/>
+    </row>
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B424" s="3"/>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B425" s="3"/>
+    </row>
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A427" s="1"/>
+      <c r="B427" s="2"/>
+    </row>
+    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A437" s="4"/>
+      <c r="G437" s="4"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B441" s="5"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B442" s="5"/>
+    </row>
+    <row r="443" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+      <c r="B443" s="2"/>
+    </row>
+    <row r="450" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="453" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A453" s="4"/>
+      <c r="G453" s="4"/>
+    </row>
+    <row r="454" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A454" s="4"/>
+      <c r="G454" s="4"/>
+    </row>
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A457" s="1"/>
+      <c r="B457" s="2"/>
+    </row>
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B470" s="3"/>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B471" s="3"/>
+    </row>
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A473" s="1"/>
+      <c r="B473" s="2"/>
+    </row>
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A480" s="1"/>
+    </row>
+    <row r="483" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A483" s="4"/>
+      <c r="G483" s="4"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B487" s="5"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B488" s="5"/>
+    </row>
+    <row r="489" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A489" s="1"/>
+      <c r="B489" s="2"/>
+    </row>
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A496" s="1"/>
+    </row>
+    <row r="499" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A499" s="4"/>
+      <c r="G499" s="4"/>
+    </row>
+    <row r="500" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A500" s="4"/>
+      <c r="G500" s="4"/>
+    </row>
+    <row r="503" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A503" s="1"/>
+      <c r="B503" s="2"/>
+    </row>
+    <row r="510" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A510" s="1"/>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B516" s="3"/>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B517" s="3"/>
+    </row>
+    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A519" s="1"/>
+      <c r="B519" s="2"/>
+    </row>
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A526" s="1"/>
+    </row>
+    <row r="529" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A529" s="4"/>
+      <c r="G529" s="4"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B533" s="5"/>
+    </row>
+    <row r="535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A535" s="1"/>
+      <c r="B535" s="2"/>
+    </row>
+    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A542" s="1"/>
+    </row>
+    <row r="545" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A545" s="4"/>
+      <c r="G545" s="4"/>
+    </row>
+    <row r="546" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A546" s="4"/>
+      <c r="G546" s="4"/>
+    </row>
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A548" s="1"/>
+      <c r="B548" s="2"/>
+    </row>
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A555" s="1"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B561" s="3"/>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B562" s="3"/>
+    </row>
+    <row r="564" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A564" s="1"/>
+      <c r="B564" s="2"/>
+    </row>
+    <row r="571" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A571" s="1"/>
+    </row>
+    <row r="574" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A574" s="4"/>
+      <c r="G574" s="4"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B578" s="5"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B579" s="5"/>
+    </row>
+    <row r="580" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A580" s="1"/>
+      <c r="B580" s="2"/>
+    </row>
+    <row r="587" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A587" s="1"/>
+    </row>
+    <row r="590" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A590" s="4"/>
+      <c r="G590" s="4"/>
+    </row>
+    <row r="591" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A591" s="4"/>
+      <c r="G591" s="4"/>
+    </row>
+    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A594" s="1"/>
+      <c r="B594" s="2"/>
+    </row>
+    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A601" s="1"/>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B607" s="3"/>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B608" s="3"/>
+    </row>
+    <row r="610" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A610" s="1"/>
+      <c r="B610" s="2"/>
+    </row>
+    <row r="617" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A617" s="1"/>
+    </row>
+    <row r="620" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A620" s="4"/>
+      <c r="G620" s="4"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B624" s="5"/>
+    </row>
+    <row r="626" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+      <c r="B626" s="2"/>
+    </row>
+    <row r="633" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A633" s="1"/>
+    </row>
+    <row r="636" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A636" s="4"/>
+      <c r="G636" s="4"/>
+    </row>
+    <row r="637" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A637" s="4"/>
+      <c r="G637" s="4"/>
+    </row>
+    <row r="639" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A639" s="1"/>
+      <c r="B639" s="2"/>
+    </row>
+    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A645" s="1"/>
+    </row>
+    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A650" s="1"/>
+      <c r="B650" s="2"/>
+    </row>
+    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A656" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K638" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K656" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
